--- a/Data/EC/NIT-9014075181.xlsx
+++ b/Data/EC/NIT-9014075181.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C35E69-89C7-47B5-BD95-9686ABF3CB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34A2908B-81A9-4FB5-9280-7009FE12EF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B347A5AC-D175-49FC-B1C8-F51AC86E5E2B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{11A74BF4-4983-4D8F-8175-D8786E5294B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="191">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,69 +65,453 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1101457943</t>
+  </si>
+  <si>
+    <t>JAIME ANDRES TAPIA HERRERA</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>1047400198</t>
+  </si>
+  <si>
+    <t>HEIDY JURLEY MEZA VILLALOBOS</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>1048609253</t>
+  </si>
+  <si>
+    <t>YEFERSON CONTRERAS</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>72209413</t>
+  </si>
+  <si>
+    <t>EBERTO NUÑEZ ALVAREZ</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1047421254</t>
+  </si>
+  <si>
+    <t>LUIS ANDY MENDOZA MATURANA</t>
+  </si>
+  <si>
+    <t>1082478072</t>
+  </si>
+  <si>
+    <t>HAGI JOSE MAURE GUTIERREZ</t>
+  </si>
+  <si>
+    <t>1007977431</t>
+  </si>
+  <si>
+    <t>ROLANDO JUNIOR CHIQUILLO CONTRERAS</t>
+  </si>
+  <si>
+    <t>73151682</t>
+  </si>
+  <si>
+    <t>FERNANDO ALBERTO AVILA FRANCO</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>9236898</t>
+  </si>
+  <si>
+    <t>RICHARD CARABALLO PENARANDA</t>
+  </si>
+  <si>
+    <t>73147428</t>
+  </si>
+  <si>
+    <t>WALBERTO CASTILLA FERRARI</t>
+  </si>
+  <si>
+    <t>1143346450</t>
+  </si>
+  <si>
+    <t>KEVIN ENRIQUE MARQUEZ CARRILLO</t>
+  </si>
+  <si>
+    <t>1047417203</t>
+  </si>
+  <si>
+    <t>JAVIER ALBEIRO CUADRADO SANMARTIN</t>
+  </si>
+  <si>
+    <t>1007169334</t>
+  </si>
+  <si>
+    <t>RODRIGO PEÑATA MORALES</t>
+  </si>
+  <si>
+    <t>92229127</t>
+  </si>
+  <si>
+    <t>MILTHON CUADRADO VILLA</t>
+  </si>
+  <si>
+    <t>1001901399</t>
+  </si>
+  <si>
+    <t>JESUS ALBERTO PAJARO PUERTA</t>
+  </si>
+  <si>
+    <t>1002194307</t>
+  </si>
+  <si>
+    <t>EDWIN GELIZ FLOREZ</t>
+  </si>
+  <si>
+    <t>1002188038</t>
+  </si>
+  <si>
+    <t>CALEB MIRANDA AVILA</t>
+  </si>
+  <si>
+    <t>1007901694</t>
+  </si>
+  <si>
+    <t>ANGEL RAMIRO PELUFFO PELUFO</t>
+  </si>
+  <si>
+    <t>1007724974</t>
+  </si>
+  <si>
+    <t>HAROL RAFAEL BALDOVINO VELASCO</t>
+  </si>
+  <si>
+    <t>73163591</t>
+  </si>
+  <si>
+    <t>ALBERTO JOSE CORREA PACHECO</t>
+  </si>
+  <si>
+    <t>1007882675</t>
+  </si>
+  <si>
+    <t>JOHN JAIRO RODDRIGUEZ PERTUZ</t>
+  </si>
+  <si>
+    <t>1143391982</t>
+  </si>
+  <si>
+    <t>DAVID ENRIQUE BELLO CONTRERAS</t>
+  </si>
+  <si>
+    <t>1002242193</t>
+  </si>
+  <si>
+    <t>KEINER ENRIQUE DORIA ARRIETA</t>
+  </si>
+  <si>
+    <t>1051448961</t>
+  </si>
+  <si>
+    <t>ADALBERTO ENRIQUE MARRUGO PATERNINA</t>
+  </si>
+  <si>
+    <t>1007968700</t>
+  </si>
+  <si>
+    <t>MARTIN ALONSO TORRES BARRIOS</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>5517830</t>
+  </si>
+  <si>
+    <t>GABRIEL JOSE RIVERO PEÑA</t>
+  </si>
+  <si>
+    <t>85460632</t>
+  </si>
+  <si>
+    <t>LUIS SEGUNDO CADIZ PINTO</t>
+  </si>
+  <si>
+    <t>1051887556</t>
+  </si>
+  <si>
+    <t>SNEIDER ENRIQUE MORALES CALVO</t>
+  </si>
+  <si>
+    <t>73099069</t>
+  </si>
+  <si>
+    <t>RAFAEL POLO MURIELES</t>
+  </si>
+  <si>
+    <t>1041977788</t>
+  </si>
+  <si>
+    <t>ALDAIR ARROYO BRIEVA</t>
+  </si>
+  <si>
     <t>73199485</t>
   </si>
   <si>
     <t>DAWIS DAVID DEVOZ GUZMAN</t>
   </si>
   <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>73127500</t>
+  </si>
+  <si>
+    <t>MARCOS JULIO REVOLLEDO DE AVILA</t>
+  </si>
+  <si>
+    <t>9097702</t>
+  </si>
+  <si>
+    <t>CARLOS MANUEL LOPEZ BALLESTEROS</t>
+  </si>
+  <si>
+    <t>73093631</t>
+  </si>
+  <si>
+    <t>WILLIAM PEREZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>73141995</t>
+  </si>
+  <si>
+    <t>DILSON JULIO AGRESOT</t>
+  </si>
+  <si>
+    <t>1047471828</t>
+  </si>
+  <si>
+    <t>HAROL LEAL ORTEGA</t>
+  </si>
+  <si>
+    <t>1048600963</t>
+  </si>
+  <si>
+    <t>JEAN MOISES TORRES MACHACON</t>
+  </si>
+  <si>
+    <t>9099077</t>
+  </si>
+  <si>
+    <t>JOSE JOAQUIN NAVARRO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>73215294</t>
+  </si>
+  <si>
+    <t>OSWALDO PADILLA TORRES</t>
+  </si>
+  <si>
+    <t>1047403485</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO GARCIA MUÑOZ</t>
+  </si>
+  <si>
+    <t>15076544</t>
+  </si>
+  <si>
+    <t>INOCENCIO VARGAS DIAZ</t>
+  </si>
+  <si>
+    <t>73216212</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO MAZA JULIO</t>
+  </si>
+  <si>
+    <t>92499289</t>
+  </si>
+  <si>
+    <t>CARMELO DE JESUS MAZA MIRANDA</t>
+  </si>
+  <si>
+    <t>1047438155</t>
+  </si>
+  <si>
+    <t>ARNOLDO DE JESUS MAZA RUIZ</t>
+  </si>
+  <si>
+    <t>7917114</t>
+  </si>
+  <si>
+    <t>SAMUEL ARIZA ZUNIGA</t>
+  </si>
+  <si>
+    <t>9040349</t>
+  </si>
+  <si>
+    <t>JOSE MATILDA LUNA MERCADO</t>
+  </si>
+  <si>
+    <t>9239671</t>
+  </si>
+  <si>
+    <t>ANGEL LUIS MACHACON ARROYO</t>
+  </si>
+  <si>
+    <t>1047426265</t>
+  </si>
+  <si>
+    <t>JORGE LUIS MENAZAS BARTOLOMEZ</t>
+  </si>
+  <si>
+    <t>1052075735</t>
+  </si>
+  <si>
+    <t>EDAIMER JOSE CARO CARDENAS</t>
+  </si>
+  <si>
+    <t>1235044047</t>
+  </si>
+  <si>
+    <t>LARRY JHONSON GUERRERO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>73571453</t>
+  </si>
+  <si>
+    <t>JOHN JAIRO DE LA ROSA NUýEZ</t>
+  </si>
+  <si>
+    <t>73507635</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO MARTINEZ OSPINO</t>
+  </si>
+  <si>
+    <t>1047439094</t>
+  </si>
+  <si>
+    <t>ORLANDO MANUEL BELTRAN PAJARO</t>
+  </si>
+  <si>
+    <t>1050949316</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO CARO CARDENAS</t>
+  </si>
+  <si>
+    <t>1002276103</t>
+  </si>
+  <si>
+    <t>DEIVIS JOSE MARTINEZ VALDES</t>
+  </si>
+  <si>
+    <t>1002199008</t>
+  </si>
+  <si>
+    <t>ERICK YESID SANTANA VASQUEZ</t>
+  </si>
+  <si>
+    <t>1002315439</t>
+  </si>
+  <si>
+    <t>FREDDYS LUIS BARRIOS FORERO</t>
+  </si>
+  <si>
+    <t>1047375848</t>
+  </si>
+  <si>
+    <t>BRENDA BARCOS BUELVAS</t>
+  </si>
+  <si>
+    <t>78747194</t>
+  </si>
+  <si>
+    <t>ALFREDO JOSE PLAZA GARCIA</t>
+  </si>
+  <si>
+    <t>1001976793</t>
+  </si>
+  <si>
+    <t>OMAR SAMIR ARIZA MARRUGO</t>
+  </si>
+  <si>
+    <t>6426597</t>
+  </si>
+  <si>
+    <t>WILFREDO ALEXANDER MILLAN DIAZ</t>
+  </si>
+  <si>
+    <t>23114828</t>
+  </si>
+  <si>
+    <t>KATY MILENA TEJEDOR CANTILLO</t>
+  </si>
+  <si>
+    <t>1049825233</t>
+  </si>
+  <si>
+    <t>JESUS CAMILO MORALES VILLEGAS</t>
+  </si>
+  <si>
+    <t>1048600757</t>
+  </si>
+  <si>
+    <t>MOISES REBOLLEDO MACHACON</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>73127500</t>
-  </si>
-  <si>
-    <t>MARCOS JULIO REVOLLEDO DE AVILA</t>
-  </si>
-  <si>
-    <t>73151682</t>
-  </si>
-  <si>
-    <t>FERNANDO ALBERTO AVILA FRANCO</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>9236898</t>
-  </si>
-  <si>
-    <t>RICHARD CARABALLO PENARANDA</t>
-  </si>
-  <si>
     <t>22801398</t>
   </si>
   <si>
     <t>MONICA YESENIA RIOS RANGEL</t>
   </si>
   <si>
-    <t>73147428</t>
-  </si>
-  <si>
-    <t>WALBERTO CASTILLA FERRARI</t>
-  </si>
-  <si>
-    <t>1042578264</t>
-  </si>
-  <si>
-    <t>JAIDER EMILIO POSSO CANABAL</t>
-  </si>
-  <si>
-    <t>9097702</t>
-  </si>
-  <si>
-    <t>CARLOS MANUEL LOPEZ BALLESTEROS</t>
-  </si>
-  <si>
-    <t>73093631</t>
-  </si>
-  <si>
-    <t>WILLIAM PEREZ MARTINEZ</t>
-  </si>
-  <si>
     <t>1143121209</t>
   </si>
   <si>
@@ -140,411 +524,12 @@
     <t>ANGELO JOSE RAMOS ARZUZA</t>
   </si>
   <si>
-    <t>73141995</t>
-  </si>
-  <si>
-    <t>DILSON JULIO AGRESOT</t>
-  </si>
-  <si>
-    <t>1143346450</t>
-  </si>
-  <si>
-    <t>KEVIN ENRIQUE MARQUEZ CARRILLO</t>
-  </si>
-  <si>
-    <t>1051444989</t>
-  </si>
-  <si>
-    <t>CRISTIAN ESPINOSA MARQUEZ</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>1047471828</t>
-  </si>
-  <si>
-    <t>HAROL LEAL ORTEGA</t>
-  </si>
-  <si>
-    <t>1048600963</t>
-  </si>
-  <si>
-    <t>JEAN MOISES TORRES MACHACON</t>
-  </si>
-  <si>
-    <t>9099077</t>
-  </si>
-  <si>
-    <t>JOSE JOAQUIN NAVARRO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>73215294</t>
-  </si>
-  <si>
-    <t>OSWALDO PADILLA TORRES</t>
-  </si>
-  <si>
-    <t>1047403485</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO GARCIA MUÑOZ</t>
-  </si>
-  <si>
-    <t>1047468317</t>
-  </si>
-  <si>
-    <t>JAIR PEREZ IBARRA</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>73350801</t>
-  </si>
-  <si>
-    <t>ARIEL ARNEDO ACEVEDO</t>
-  </si>
-  <si>
-    <t>1047417203</t>
-  </si>
-  <si>
-    <t>JAVIER ALBEIRO CUADRADO SANMARTIN</t>
-  </si>
-  <si>
-    <t>73116094</t>
-  </si>
-  <si>
-    <t>EVER ORLANDO CARABALLO PEÑARANDA</t>
-  </si>
-  <si>
-    <t>15076544</t>
-  </si>
-  <si>
-    <t>INOCENCIO VARGAS DIAZ</t>
-  </si>
-  <si>
-    <t>1007169334</t>
-  </si>
-  <si>
-    <t>RODRIGO PEÑATA MORALES</t>
-  </si>
-  <si>
-    <t>73216212</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO MAZA JULIO</t>
-  </si>
-  <si>
-    <t>92499289</t>
-  </si>
-  <si>
-    <t>CARMELO DE JESUS MAZA MIRANDA</t>
-  </si>
-  <si>
-    <t>1047438155</t>
-  </si>
-  <si>
-    <t>ARNOLDO DE JESUS MAZA RUIZ</t>
-  </si>
-  <si>
-    <t>92229127</t>
-  </si>
-  <si>
-    <t>MILTHON CUADRADO VILLA</t>
-  </si>
-  <si>
-    <t>7917114</t>
-  </si>
-  <si>
-    <t>SAMUEL ARIZA ZUNIGA</t>
-  </si>
-  <si>
-    <t>9040349</t>
-  </si>
-  <si>
-    <t>JOSE MATILDA LUNA MERCADO</t>
-  </si>
-  <si>
-    <t>9239671</t>
-  </si>
-  <si>
-    <t>ANGEL LUIS MACHACON ARROYO</t>
-  </si>
-  <si>
-    <t>1101457943</t>
-  </si>
-  <si>
-    <t>JAIME ANDRES TAPIA HERRERA</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>1001901399</t>
-  </si>
-  <si>
-    <t>JESUS ALBERTO PAJARO PUERTA</t>
-  </si>
-  <si>
-    <t>1047426265</t>
-  </si>
-  <si>
-    <t>JORGE LUIS MENAZAS BARTOLOMEZ</t>
-  </si>
-  <si>
-    <t>73125198</t>
-  </si>
-  <si>
-    <t>JAVIER OSVALDO CARABALLO PENARANDA</t>
-  </si>
-  <si>
-    <t>73203385</t>
-  </si>
-  <si>
-    <t>JAVIER ENRIQUE ZAPATEIRO REALES</t>
-  </si>
-  <si>
-    <t>1048609253</t>
-  </si>
-  <si>
-    <t>YEFERSON CONTRERAS</t>
-  </si>
-  <si>
-    <t>1052075735</t>
-  </si>
-  <si>
-    <t>EDAIMER JOSE CARO CARDENAS</t>
-  </si>
-  <si>
-    <t>1002194307</t>
-  </si>
-  <si>
-    <t>EDWIN GELIZ FLOREZ</t>
-  </si>
-  <si>
-    <t>1235044047</t>
-  </si>
-  <si>
-    <t>LARRY JHONSON GUERRERO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1049934782</t>
-  </si>
-  <si>
-    <t>EDWIN RUIZ PEREZ</t>
-  </si>
-  <si>
-    <t>1007882674</t>
-  </si>
-  <si>
-    <t>YEISON RODRIGUEZ PERTUZ</t>
-  </si>
-  <si>
-    <t>1002188038</t>
-  </si>
-  <si>
-    <t>CALEB MIRANDA AVILA</t>
-  </si>
-  <si>
-    <t>73571453</t>
-  </si>
-  <si>
-    <t>JOHN JAIRO DE LA ROSA NUýEZ</t>
-  </si>
-  <si>
-    <t>1007446138</t>
-  </si>
-  <si>
-    <t>TIERRY WADID BARRIOS URANGO</t>
-  </si>
-  <si>
-    <t>1143392912</t>
-  </si>
-  <si>
-    <t>EVER CARABALLO MIRANDA</t>
-  </si>
-  <si>
-    <t>73507635</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO MARTINEZ OSPINO</t>
-  </si>
-  <si>
-    <t>1047439094</t>
-  </si>
-  <si>
-    <t>ORLANDO MANUEL BELTRAN PAJARO</t>
-  </si>
-  <si>
-    <t>1047372084</t>
-  </si>
-  <si>
-    <t>JHON DEIVIS AGRESOTT HERRERA</t>
-  </si>
-  <si>
-    <t>1050949316</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO CARO CARDENAS</t>
-  </si>
-  <si>
-    <t>1007901694</t>
-  </si>
-  <si>
-    <t>ANGEL RAMIRO PELUFFO PELUFO</t>
-  </si>
-  <si>
-    <t>1043635608</t>
-  </si>
-  <si>
-    <t>ANGEL DANIEL ANAYA CUELLO</t>
-  </si>
-  <si>
     <t>1048600567</t>
   </si>
   <si>
     <t>JOSE DAVID MARTINEZ GOMEZ</t>
   </si>
   <si>
-    <t>1002276103</t>
-  </si>
-  <si>
-    <t>DEIVIS JOSE MARTINEZ VALDES</t>
-  </si>
-  <si>
-    <t>1007724974</t>
-  </si>
-  <si>
-    <t>HAROL RAFAEL BALDOVINO VELASCO</t>
-  </si>
-  <si>
-    <t>80148754</t>
-  </si>
-  <si>
-    <t>LUIS ARMANDO ROZO VALCARCEL</t>
-  </si>
-  <si>
-    <t>73352023</t>
-  </si>
-  <si>
-    <t>JORGE ENRIQUE BARON GOMEZ</t>
-  </si>
-  <si>
-    <t>1002199008</t>
-  </si>
-  <si>
-    <t>ERICK YESID SANTANA VASQUEZ</t>
-  </si>
-  <si>
-    <t>1047421254</t>
-  </si>
-  <si>
-    <t>LUIS ANDY MENDOZA MATURANA</t>
-  </si>
-  <si>
-    <t>73163591</t>
-  </si>
-  <si>
-    <t>ALBERTO JOSE CORREA PACHECO</t>
-  </si>
-  <si>
-    <t>1047400198</t>
-  </si>
-  <si>
-    <t>HEIDY JURLEY MEZA VILLALOBOS</t>
-  </si>
-  <si>
-    <t>1007882675</t>
-  </si>
-  <si>
-    <t>JOHN JAIRO RODDRIGUEZ PERTUZ</t>
-  </si>
-  <si>
-    <t>72209413</t>
-  </si>
-  <si>
-    <t>EBERTO NUÑEZ ALVAREZ</t>
-  </si>
-  <si>
-    <t>1143391982</t>
-  </si>
-  <si>
-    <t>DAVID ENRIQUE BELLO CONTRERAS</t>
-  </si>
-  <si>
-    <t>1082478072</t>
-  </si>
-  <si>
-    <t>HAGI JOSE MAURE GUTIERREZ</t>
-  </si>
-  <si>
-    <t>1002242193</t>
-  </si>
-  <si>
-    <t>KEINER ENRIQUE DORIA ARRIETA</t>
-  </si>
-  <si>
-    <t>1002315439</t>
-  </si>
-  <si>
-    <t>FREDDYS LUIS BARRIOS FORERO</t>
-  </si>
-  <si>
-    <t>1047375848</t>
-  </si>
-  <si>
-    <t>BRENDA BARCOS BUELVAS</t>
-  </si>
-  <si>
-    <t>1051448961</t>
-  </si>
-  <si>
-    <t>ADALBERTO ENRIQUE MARRUGO PATERNINA</t>
-  </si>
-  <si>
-    <t>1007968700</t>
-  </si>
-  <si>
-    <t>MARTIN ALONSO TORRES BARRIOS</t>
-  </si>
-  <si>
     <t>1047414164</t>
   </si>
   <si>
@@ -557,141 +542,12 @@
     <t>JOSIE ANDRES REVOLLO ROCHA</t>
   </si>
   <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>7415990</t>
-  </si>
-  <si>
-    <t>ANGGELO ALEJANDRO MARTINEZ BERROTERAN</t>
-  </si>
-  <si>
-    <t>1007882677</t>
-  </si>
-  <si>
-    <t>MANUEL RODRIGUEZ PERTUZ</t>
-  </si>
-  <si>
-    <t>73230415</t>
-  </si>
-  <si>
-    <t>GABRIEL ENRIQUE HERNANDEZ NAVARRIO</t>
-  </si>
-  <si>
-    <t>1043297593</t>
-  </si>
-  <si>
-    <t>YESID TORRES TORRES</t>
-  </si>
-  <si>
     <t>1047500287</t>
   </si>
   <si>
     <t>YURANI LORDUY MATOS</t>
   </si>
   <si>
-    <t>5517830</t>
-  </si>
-  <si>
-    <t>GABRIEL JOSE RIVERO PEÑA</t>
-  </si>
-  <si>
-    <t>79977557</t>
-  </si>
-  <si>
-    <t>JOSE MISAEL NIÃ±O VARGAS</t>
-  </si>
-  <si>
-    <t>3072054</t>
-  </si>
-  <si>
-    <t>MISAEL NIÃ±O ROJAS</t>
-  </si>
-  <si>
-    <t>85460632</t>
-  </si>
-  <si>
-    <t>LUIS SEGUNDO CADIZ PINTO</t>
-  </si>
-  <si>
-    <t>1076663796</t>
-  </si>
-  <si>
-    <t>JUAN SEBASTIAN YOMAYUZA ALONSO</t>
-  </si>
-  <si>
-    <t>1051887556</t>
-  </si>
-  <si>
-    <t>SNEIDER ENRIQUE MORALES CALVO</t>
-  </si>
-  <si>
-    <t>79727048</t>
-  </si>
-  <si>
-    <t>VICTOR ARMANDO CALDERON GARZON</t>
-  </si>
-  <si>
-    <t>73099069</t>
-  </si>
-  <si>
-    <t>RAFAEL POLO MURIELES</t>
-  </si>
-  <si>
-    <t>1047500732</t>
-  </si>
-  <si>
-    <t>RAFAEL ENRIQUE MARTINEZ TORRES</t>
-  </si>
-  <si>
-    <t>1007977431</t>
-  </si>
-  <si>
-    <t>ROLANDO JUNIOR CHIQUILLO CONTRERAS</t>
-  </si>
-  <si>
-    <t>1041977788</t>
-  </si>
-  <si>
-    <t>ALDAIR ARROYO BRIEVA</t>
-  </si>
-  <si>
-    <t>78747194</t>
-  </si>
-  <si>
-    <t>ALFREDO JOSE PLAZA GARCIA</t>
-  </si>
-  <si>
-    <t>1001976793</t>
-  </si>
-  <si>
-    <t>OMAR SAMIR ARIZA MARRUGO</t>
-  </si>
-  <si>
-    <t>6426597</t>
-  </si>
-  <si>
-    <t>WILFREDO ALEXANDER MILLAN DIAZ</t>
-  </si>
-  <si>
-    <t>23114828</t>
-  </si>
-  <si>
-    <t>KATY MILENA TEJEDOR CANTILLO</t>
-  </si>
-  <si>
-    <t>1049825233</t>
-  </si>
-  <si>
-    <t>JESUS CAMILO MORALES VILLEGAS</t>
-  </si>
-  <si>
-    <t>1048600757</t>
-  </si>
-  <si>
-    <t>MOISES REBOLLEDO MACHACON</t>
-  </si>
-  <si>
     <t>79929237</t>
   </si>
   <si>
@@ -714,6 +570,12 @@
   </si>
   <si>
     <t>SHEILY HERNANDEZ CANTILLO</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>JAIRO JOSE MAZA SALGUEDO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -812,7 +674,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -825,9 +689,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1027,23 +889,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1071,10 +933,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,7 +989,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CACBC3F-7A1C-AD00-BF8C-FA10F2CB6BD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC1FB2C-2B50-1660-80DA-87F311A04182}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,8 +1340,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279F0A6B-5392-44E3-89F8-AFF31E85472F}">
-  <dimension ref="B2:J347"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB78FD36-DEE4-4D2E-9EB3-0EB30F2A5FFA}">
+  <dimension ref="B2:J306"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1503,7 +1365,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1548,7 +1410,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1580,12 +1442,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>16526622</v>
+        <v>14473662</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1596,17 +1458,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="C13" s="5">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="F13" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1633,13 +1495,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1656,10 +1518,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>5200</v>
       </c>
       <c r="G16" s="18">
-        <v>1462000</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1679,10 +1541,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>9490</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1462000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1699,13 +1561,13 @@
         <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>32933</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1716,19 +1578,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>20878</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1739,19 +1601,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F20" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1762,19 +1624,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F21" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1785,19 +1647,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F22" s="18">
-        <v>28470</v>
+        <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1808,19 +1670,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1831,19 +1693,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1854,19 +1716,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F25" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G25" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1877,19 +1739,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>41756</v>
+        <v>52000</v>
       </c>
       <c r="G26" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1900,19 +1762,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1923,19 +1785,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G28" s="18">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1946,19 +1808,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G29" s="18">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1969,19 +1831,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1992,19 +1854,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -2015,19 +1877,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -2038,19 +1900,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -2061,19 +1923,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>37960</v>
+        <v>52000</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -2084,19 +1946,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -2107,19 +1969,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>37960</v>
+        <v>48533</v>
       </c>
       <c r="G36" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -2130,19 +1992,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>41756</v>
+        <v>52000</v>
       </c>
       <c r="G37" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -2153,19 +2015,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
-        <v>41756</v>
+        <v>52000</v>
       </c>
       <c r="G38" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -2176,19 +2038,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -2199,19 +2061,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
-        <v>24674</v>
+        <v>52000</v>
       </c>
       <c r="G40" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -2222,16 +2084,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
-        <v>56940</v>
+        <v>39858</v>
       </c>
       <c r="G41" s="18">
         <v>1423500</v>
@@ -2245,19 +2107,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F42" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G42" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -2268,19 +2130,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F43" s="18">
-        <v>28470</v>
+        <v>52000</v>
       </c>
       <c r="G43" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2291,13 +2153,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -2314,19 +2176,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F45" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G45" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2337,19 +2199,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F46" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2360,19 +2222,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
-        <v>9490</v>
+        <v>52000</v>
       </c>
       <c r="G47" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2383,19 +2245,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G48" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2406,16 +2268,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F49" s="18">
-        <v>20878</v>
+        <v>56940</v>
       </c>
       <c r="G49" s="18">
         <v>1423500</v>
@@ -2429,19 +2291,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G50" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2452,19 +2314,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F51" s="18">
-        <v>34164</v>
+        <v>52000</v>
       </c>
       <c r="G51" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2475,19 +2337,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
-        <v>56940</v>
+        <v>1898</v>
       </c>
       <c r="G52" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2498,19 +2360,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>20878</v>
+        <v>52000</v>
       </c>
       <c r="G53" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2521,13 +2383,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F54" s="18">
         <v>56940</v>
@@ -2544,16 +2406,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F55" s="18">
-        <v>9490</v>
+        <v>1898</v>
       </c>
       <c r="G55" s="18">
         <v>1423500</v>
@@ -2567,19 +2429,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F56" s="18">
-        <v>52000</v>
+        <v>11388</v>
       </c>
       <c r="G56" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2590,19 +2452,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F57" s="18">
-        <v>52000</v>
+        <v>28470</v>
       </c>
       <c r="G57" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2613,19 +2475,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F58" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G58" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2636,19 +2498,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F59" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G59" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2659,19 +2521,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F60" s="18">
-        <v>52000</v>
+        <v>28470</v>
       </c>
       <c r="G60" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2682,19 +2544,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F61" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G61" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2705,19 +2567,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F62" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G62" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2728,19 +2590,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F63" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G63" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2751,19 +2613,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F64" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G64" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2774,13 +2636,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F65" s="18">
         <v>56940</v>
@@ -2797,19 +2659,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F66" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G66" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2820,13 +2682,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F67" s="18">
         <v>56940</v>
@@ -2843,13 +2705,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F68" s="18">
         <v>56940</v>
@@ -2866,13 +2728,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F69" s="18">
         <v>56940</v>
@@ -2895,10 +2757,10 @@
         <v>62</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G70" s="18">
         <v>1423500</v>
@@ -2912,13 +2774,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>56940</v>
@@ -2941,10 +2803,10 @@
         <v>64</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F72" s="18">
-        <v>32266</v>
+        <v>56940</v>
       </c>
       <c r="G72" s="18">
         <v>1423500</v>
@@ -2958,19 +2820,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F73" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G73" s="18">
-        <v>1300606</v>
+        <v>1300000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2987,13 +2849,13 @@
         <v>66</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F74" s="18">
         <v>56940</v>
       </c>
       <c r="G74" s="18">
-        <v>1300606</v>
+        <v>1423500</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -3004,19 +2866,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F75" s="18">
         <v>56940</v>
       </c>
       <c r="G75" s="18">
-        <v>1300606</v>
+        <v>1423500</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -3033,10 +2895,10 @@
         <v>68</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F76" s="18">
-        <v>56940</v>
+        <v>28470</v>
       </c>
       <c r="G76" s="18">
         <v>1423500</v>
@@ -3050,16 +2912,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F77" s="18">
-        <v>32266</v>
+        <v>56940</v>
       </c>
       <c r="G77" s="18">
         <v>1423500</v>
@@ -3079,7 +2941,7 @@
         <v>70</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F78" s="18">
         <v>56940</v>
@@ -3096,16 +2958,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F79" s="18">
-        <v>32266</v>
+        <v>56940</v>
       </c>
       <c r="G79" s="18">
         <v>1423500</v>
@@ -3119,13 +2981,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F80" s="18">
         <v>56940</v>
@@ -3139,19 +3001,19 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F81" s="18">
-        <v>32266</v>
+        <v>56940</v>
       </c>
       <c r="G81" s="18">
         <v>1423500</v>
@@ -3165,13 +3027,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F82" s="18">
         <v>56940</v>
@@ -3188,13 +3050,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F83" s="18">
         <v>56940</v>
@@ -3211,13 +3073,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F84" s="18">
         <v>56940</v>
@@ -3234,13 +3096,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F85" s="18">
         <v>56940</v>
@@ -3257,16 +3119,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F86" s="18">
-        <v>49348</v>
+        <v>56940</v>
       </c>
       <c r="G86" s="18">
         <v>1423500</v>
@@ -3280,16 +3142,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F87" s="18">
-        <v>56940</v>
+        <v>9490</v>
       </c>
       <c r="G87" s="18">
         <v>1423500</v>
@@ -3303,16 +3165,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F88" s="18">
-        <v>34164</v>
+        <v>20878</v>
       </c>
       <c r="G88" s="18">
         <v>1423500</v>
@@ -3326,13 +3188,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F89" s="18">
         <v>56940</v>
@@ -3349,16 +3211,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F90" s="18">
-        <v>32266</v>
+        <v>56940</v>
       </c>
       <c r="G90" s="18">
         <v>1423500</v>
@@ -3372,19 +3234,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F91" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G91" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3395,19 +3257,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F92" s="18">
-        <v>52000</v>
+        <v>37960</v>
       </c>
       <c r="G92" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3418,19 +3280,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F93" s="18">
-        <v>52000</v>
+        <v>37960</v>
       </c>
       <c r="G93" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3441,19 +3303,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F94" s="18">
-        <v>52000</v>
+        <v>24674</v>
       </c>
       <c r="G94" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3464,19 +3326,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F95" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G95" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3487,19 +3349,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F96" s="18">
-        <v>52000</v>
+        <v>9490</v>
       </c>
       <c r="G96" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3510,19 +3372,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F97" s="18">
-        <v>52000</v>
+        <v>20878</v>
       </c>
       <c r="G97" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3533,19 +3395,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="F98" s="18">
-        <v>52000</v>
+        <v>34164</v>
       </c>
       <c r="G98" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3556,19 +3418,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F99" s="18">
-        <v>52000</v>
+        <v>20878</v>
       </c>
       <c r="G99" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3579,19 +3441,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F100" s="18">
-        <v>52000</v>
+        <v>9490</v>
       </c>
       <c r="G100" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3602,19 +3464,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F101" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G101" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3625,19 +3487,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F102" s="18">
-        <v>52000</v>
+        <v>32266</v>
       </c>
       <c r="G102" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3648,19 +3510,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F103" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G103" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3671,19 +3533,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F104" s="18">
-        <v>52000</v>
+        <v>32266</v>
       </c>
       <c r="G104" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3694,19 +3556,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F105" s="18">
-        <v>52000</v>
+        <v>32266</v>
       </c>
       <c r="G105" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3717,19 +3579,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F106" s="18">
-        <v>52000</v>
+        <v>32266</v>
       </c>
       <c r="G106" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3740,19 +3602,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F107" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G107" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3763,19 +3625,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F108" s="18">
-        <v>5200</v>
+        <v>49348</v>
       </c>
       <c r="G108" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3786,16 +3648,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F109" s="18">
-        <v>56940</v>
+        <v>34164</v>
       </c>
       <c r="G109" s="18">
         <v>1423500</v>
@@ -3809,16 +3671,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F110" s="18">
-        <v>56940</v>
+        <v>32266</v>
       </c>
       <c r="G110" s="18">
         <v>1423500</v>
@@ -3832,19 +3694,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F111" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G111" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3855,13 +3717,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F112" s="18">
         <v>56940</v>
@@ -3878,13 +3740,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F113" s="18">
         <v>20878</v>
@@ -3901,19 +3763,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F114" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G114" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3924,16 +3786,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F115" s="18">
-        <v>56940</v>
+        <v>24674</v>
       </c>
       <c r="G115" s="18">
         <v>1423500</v>
@@ -3947,13 +3809,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F116" s="18">
         <v>56940</v>
@@ -3970,16 +3832,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="F117" s="18">
-        <v>52000</v>
+        <v>9490</v>
       </c>
       <c r="G117" s="18">
         <v>1423500</v>
@@ -3993,19 +3855,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F118" s="18">
         <v>56940</v>
       </c>
       <c r="G118" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -4016,19 +3878,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F119" s="18">
-        <v>56940</v>
+        <v>32266</v>
       </c>
       <c r="G119" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -4039,19 +3901,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F120" s="18">
-        <v>56940</v>
+        <v>20878</v>
       </c>
       <c r="G120" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -4062,19 +3924,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F121" s="18">
-        <v>52000</v>
+        <v>24674</v>
       </c>
       <c r="G121" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -4085,19 +3947,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F122" s="18">
-        <v>52000</v>
+        <v>32266</v>
       </c>
       <c r="G122" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -4108,19 +3970,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F123" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G123" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -4131,19 +3993,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F124" s="18">
-        <v>52000</v>
+        <v>20878</v>
       </c>
       <c r="G124" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -4154,19 +4016,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F125" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G125" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -4177,19 +4039,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F126" s="18">
-        <v>52000</v>
+        <v>24674</v>
       </c>
       <c r="G126" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -4200,19 +4062,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F127" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G127" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -4223,19 +4085,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="F128" s="18">
-        <v>48533</v>
+        <v>56940</v>
       </c>
       <c r="G128" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -4246,19 +4108,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F129" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G129" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4269,16 +4131,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F130" s="18">
-        <v>24674</v>
+        <v>56940</v>
       </c>
       <c r="G130" s="18">
         <v>1423500</v>
@@ -4292,13 +4154,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F131" s="18">
         <v>56940</v>
@@ -4315,13 +4177,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F132" s="18">
         <v>56940</v>
@@ -4338,13 +4200,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F133" s="18">
         <v>56940</v>
@@ -4361,13 +4223,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F134" s="18">
         <v>56940</v>
@@ -4384,16 +4246,16 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F135" s="18">
-        <v>9490</v>
+        <v>37960</v>
       </c>
       <c r="G135" s="18">
         <v>1423500</v>
@@ -4407,16 +4269,16 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F136" s="18">
-        <v>56940</v>
+        <v>20878</v>
       </c>
       <c r="G136" s="18">
         <v>1423500</v>
@@ -4430,13 +4292,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F137" s="18">
         <v>56940</v>
@@ -4453,13 +4315,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F138" s="18">
         <v>56940</v>
@@ -4473,16 +4335,16 @@
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F139" s="18">
         <v>56940</v>
@@ -4499,13 +4361,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F140" s="18">
         <v>56940</v>
@@ -4522,13 +4384,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F141" s="18">
         <v>56940</v>
@@ -4545,13 +4407,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F142" s="18">
         <v>56940</v>
@@ -4568,13 +4430,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F143" s="18">
         <v>56940</v>
@@ -4591,13 +4453,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F144" s="18">
         <v>56940</v>
@@ -4614,16 +4476,16 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F145" s="18">
-        <v>56940</v>
+        <v>49348</v>
       </c>
       <c r="G145" s="18">
         <v>1423500</v>
@@ -4637,16 +4499,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F146" s="18">
-        <v>32266</v>
+        <v>37960</v>
       </c>
       <c r="G146" s="18">
         <v>1423500</v>
@@ -4657,19 +4519,19 @@
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F147" s="18">
-        <v>56940</v>
+        <v>32266</v>
       </c>
       <c r="G147" s="18">
         <v>1423500</v>
@@ -4683,16 +4545,16 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F148" s="18">
-        <v>56940</v>
+        <v>20878</v>
       </c>
       <c r="G148" s="18">
         <v>1423500</v>
@@ -4706,16 +4568,16 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F149" s="18">
-        <v>56940</v>
+        <v>9490</v>
       </c>
       <c r="G149" s="18">
         <v>1423500</v>
@@ -4729,16 +4591,16 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F150" s="18">
-        <v>56940</v>
+        <v>9490</v>
       </c>
       <c r="G150" s="18">
         <v>1423500</v>
@@ -4752,13 +4614,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F151" s="18">
         <v>56940</v>
@@ -4775,13 +4637,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F152" s="18">
         <v>56940</v>
@@ -4798,13 +4660,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="F153" s="18">
         <v>56940</v>
@@ -4821,13 +4683,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="F154" s="18">
         <v>56940</v>
@@ -4844,16 +4706,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="F155" s="18">
-        <v>56940</v>
+        <v>41756</v>
       </c>
       <c r="G155" s="18">
         <v>1423500</v>
@@ -4867,13 +4729,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F156" s="18">
         <v>56940</v>
@@ -4890,16 +4752,16 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F157" s="18">
-        <v>20878</v>
+        <v>56940</v>
       </c>
       <c r="G157" s="18">
         <v>1423500</v>
@@ -4913,13 +4775,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F158" s="18">
         <v>56940</v>
@@ -4936,16 +4798,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F159" s="18">
-        <v>24674</v>
+        <v>41756</v>
       </c>
       <c r="G159" s="18">
         <v>1423500</v>
@@ -4959,16 +4821,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F160" s="18">
-        <v>56940</v>
+        <v>41756</v>
       </c>
       <c r="G160" s="18">
         <v>1423500</v>
@@ -4982,13 +4844,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F161" s="18">
         <v>56940</v>
@@ -5005,13 +4867,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F162" s="18">
         <v>56940</v>
@@ -5028,13 +4890,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F163" s="18">
         <v>56940</v>
@@ -5051,16 +4913,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F164" s="18">
-        <v>32266</v>
+        <v>56940</v>
       </c>
       <c r="G164" s="18">
         <v>1423500</v>
@@ -5074,13 +4936,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F165" s="18">
         <v>56940</v>
@@ -5097,13 +4959,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F166" s="18">
         <v>56940</v>
@@ -5120,13 +4982,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F167" s="18">
         <v>56940</v>
@@ -5143,13 +5005,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F168" s="18">
         <v>56940</v>
@@ -5166,13 +5028,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F169" s="18">
         <v>56940</v>
@@ -5189,13 +5051,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F170" s="18">
         <v>56940</v>
@@ -5212,16 +5074,16 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F171" s="18">
-        <v>41756</v>
+        <v>56940</v>
       </c>
       <c r="G171" s="18">
         <v>1423500</v>
@@ -5235,13 +5097,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F172" s="18">
         <v>56940</v>
@@ -5258,16 +5120,16 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F173" s="18">
-        <v>20878</v>
+        <v>56940</v>
       </c>
       <c r="G173" s="18">
         <v>1423500</v>
@@ -5281,13 +5143,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F174" s="18">
         <v>56940</v>
@@ -5304,13 +5166,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F175" s="18">
         <v>56940</v>
@@ -5327,13 +5189,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F176" s="18">
         <v>56940</v>
@@ -5350,13 +5212,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F177" s="18">
         <v>56940</v>
@@ -5373,19 +5235,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F178" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G178" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5396,13 +5258,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F179" s="18">
         <v>56940</v>
@@ -5419,13 +5281,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F180" s="18">
         <v>56940</v>
@@ -5442,19 +5304,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F181" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G181" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5465,13 +5327,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F182" s="18">
         <v>56940</v>
@@ -5488,13 +5350,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F183" s="18">
         <v>56940</v>
@@ -5511,16 +5373,16 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F184" s="18">
-        <v>24674</v>
+        <v>56940</v>
       </c>
       <c r="G184" s="18">
         <v>1423500</v>
@@ -5534,13 +5396,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F185" s="18">
         <v>56940</v>
@@ -5557,13 +5419,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F186" s="18">
         <v>56940</v>
@@ -5580,13 +5442,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F187" s="18">
         <v>56940</v>
@@ -5603,16 +5465,16 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="F188" s="18">
-        <v>1898</v>
+        <v>56940</v>
       </c>
       <c r="G188" s="18">
         <v>1423500</v>
@@ -5626,19 +5488,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F189" s="18">
         <v>56940</v>
       </c>
       <c r="G189" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5649,19 +5511,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F190" s="18">
         <v>56940</v>
       </c>
       <c r="G190" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5672,19 +5534,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F191" s="18">
-        <v>56940</v>
+        <v>41756</v>
       </c>
       <c r="G191" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5695,19 +5557,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F192" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G192" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5718,19 +5580,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F193" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G193" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5741,19 +5603,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F194" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G194" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5764,19 +5626,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="F195" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G195" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5787,19 +5649,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="F196" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G196" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5810,13 +5672,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="F197" s="18">
         <v>52000</v>
@@ -5833,19 +5695,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="F198" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G198" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5856,19 +5718,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="F199" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G199" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5879,19 +5741,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="F200" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G200" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5902,19 +5764,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="F201" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G201" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5925,19 +5787,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="F202" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G202" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5948,19 +5810,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="F203" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G203" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5971,19 +5833,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="F204" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G204" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5994,19 +5856,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="F205" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G205" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -6017,19 +5879,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="F206" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G206" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -6040,19 +5902,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="F207" s="18">
-        <v>52000</v>
+        <v>41756</v>
       </c>
       <c r="G207" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -6063,19 +5925,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="F208" s="18">
-        <v>32933</v>
+        <v>43654</v>
       </c>
       <c r="G208" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -6086,16 +5948,16 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F209" s="18">
-        <v>56940</v>
+        <v>41756</v>
       </c>
       <c r="G209" s="18">
         <v>1423500</v>
@@ -6106,16 +5968,16 @@
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B210" s="15" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F210" s="18">
         <v>56940</v>
@@ -6132,13 +5994,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F211" s="18">
         <v>56940</v>
@@ -6155,13 +6017,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F212" s="18">
         <v>56940</v>
@@ -6178,13 +6040,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F213" s="18">
         <v>56940</v>
@@ -6201,13 +6063,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F214" s="18">
         <v>56940</v>
@@ -6224,13 +6086,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="F215" s="18">
         <v>56940</v>
@@ -6247,13 +6109,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="F216" s="18">
         <v>56940</v>
@@ -6270,13 +6132,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="F217" s="18">
         <v>56940</v>
@@ -6290,19 +6152,19 @@
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B218" s="15" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="F218" s="18">
-        <v>39858</v>
+        <v>56940</v>
       </c>
       <c r="G218" s="18">
         <v>1423500</v>
@@ -6316,13 +6178,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E219" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E219" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F219" s="18">
         <v>56940</v>
@@ -6339,13 +6201,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E220" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="D220" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E220" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F220" s="18">
         <v>56940</v>
@@ -6362,16 +6224,16 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D221" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E221" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D221" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E221" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F221" s="18">
-        <v>28470</v>
+        <v>56940</v>
       </c>
       <c r="G221" s="18">
         <v>1423500</v>
@@ -6385,16 +6247,16 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F222" s="18">
-        <v>56940</v>
+        <v>41756</v>
       </c>
       <c r="G222" s="18">
         <v>1423500</v>
@@ -6408,16 +6270,16 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F223" s="18">
-        <v>56940</v>
+        <v>43654</v>
       </c>
       <c r="G223" s="18">
         <v>1423500</v>
@@ -6431,16 +6293,16 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F224" s="18">
-        <v>56940</v>
+        <v>41756</v>
       </c>
       <c r="G224" s="18">
         <v>1423500</v>
@@ -6454,16 +6316,16 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="F225" s="18">
-        <v>1898</v>
+        <v>41756</v>
       </c>
       <c r="G225" s="18">
         <v>1423500</v>
@@ -6477,13 +6339,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F226" s="18">
         <v>56940</v>
@@ -6500,13 +6362,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F227" s="18">
         <v>56940</v>
@@ -6523,13 +6385,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="F228" s="18">
         <v>56940</v>
@@ -6546,13 +6408,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F229" s="18">
         <v>56940</v>
@@ -6569,16 +6431,16 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F230" s="18">
-        <v>37960</v>
+        <v>56940</v>
       </c>
       <c r="G230" s="18">
         <v>1423500</v>
@@ -6592,13 +6454,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F231" s="18">
         <v>56940</v>
@@ -6615,16 +6477,16 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F232" s="18">
-        <v>20878</v>
+        <v>56940</v>
       </c>
       <c r="G232" s="18">
         <v>1423500</v>
@@ -6638,13 +6500,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F233" s="18">
         <v>56940</v>
@@ -6661,13 +6523,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F234" s="18">
         <v>56940</v>
@@ -6684,13 +6546,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="F235" s="18">
         <v>56940</v>
@@ -6707,19 +6569,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F236" s="18">
         <v>56940</v>
       </c>
       <c r="G236" s="18">
-        <v>1478000</v>
+        <v>1423500</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6730,19 +6592,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F237" s="18">
         <v>56940</v>
       </c>
       <c r="G237" s="18">
-        <v>1478000</v>
+        <v>1423500</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6753,19 +6615,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="F238" s="18">
         <v>56940</v>
       </c>
       <c r="G238" s="18">
-        <v>1478000</v>
+        <v>1423500</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6776,16 +6638,16 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F239" s="18">
-        <v>41756</v>
+        <v>56940</v>
       </c>
       <c r="G239" s="18">
         <v>1423500</v>
@@ -6799,16 +6661,16 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F240" s="18">
-        <v>43654</v>
+        <v>56940</v>
       </c>
       <c r="G240" s="18">
         <v>1423500</v>
@@ -6819,22 +6681,22 @@
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B241" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F241" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G241" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6842,22 +6704,22 @@
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B242" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F242" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G242" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6865,22 +6727,22 @@
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B243" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="F243" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G243" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6888,22 +6750,22 @@
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B244" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="F244" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G244" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6911,22 +6773,22 @@
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B245" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="F245" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G245" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6934,22 +6796,22 @@
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B246" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="F246" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G246" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6957,22 +6819,22 @@
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B247" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="F247" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G247" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6980,22 +6842,22 @@
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B248" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="F248" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G248" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -7003,22 +6865,22 @@
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B249" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="F249" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G249" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -7026,22 +6888,22 @@
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B250" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="F250" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G250" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -7049,22 +6911,22 @@
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B251" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="F251" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G251" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -7072,22 +6934,22 @@
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B252" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="F252" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G252" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -7095,16 +6957,16 @@
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B253" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="F253" s="18">
         <v>52000</v>
@@ -7118,22 +6980,22 @@
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B254" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="F254" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G254" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -7141,22 +7003,22 @@
     </row>
     <row r="255" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B255" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="F255" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G255" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -7164,16 +7026,16 @@
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B256" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="F256" s="18">
         <v>52000</v>
@@ -7187,22 +7049,22 @@
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B257" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="F257" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G257" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -7210,22 +7072,22 @@
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B258" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="F258" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G258" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -7236,13 +7098,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F259" s="18">
         <v>56940</v>
@@ -7259,13 +7121,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F260" s="18">
         <v>56940</v>
@@ -7282,13 +7144,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="F261" s="18">
         <v>56940</v>
@@ -7305,13 +7167,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D262" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E262" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="D262" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E262" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F262" s="18">
         <v>56940</v>
@@ -7328,13 +7190,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D263" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E263" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="D263" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E263" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F263" s="18">
         <v>56940</v>
@@ -7351,13 +7213,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E264" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="D264" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E264" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F264" s="18">
         <v>56940</v>
@@ -7374,13 +7236,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D265" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E265" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="D265" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E265" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="F265" s="18">
         <v>56940</v>
@@ -7397,13 +7259,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D266" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E266" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="D266" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E266" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="F266" s="18">
         <v>56940</v>
@@ -7420,19 +7282,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F267" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G267" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7443,19 +7305,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F268" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G268" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7466,19 +7328,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="F269" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G269" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7489,19 +7351,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="F270" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G270" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7512,19 +7374,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="F271" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G271" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7535,13 +7397,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="F272" s="18">
         <v>52000</v>
@@ -7558,19 +7420,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="F273" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G273" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7581,19 +7443,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="F274" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G274" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7604,19 +7466,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="F275" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G275" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7627,19 +7489,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="F276" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G276" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7650,19 +7512,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="F277" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G277" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7673,19 +7535,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="F278" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G278" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7696,19 +7558,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="F279" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G279" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7719,19 +7581,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="F280" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G280" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7742,19 +7604,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="F281" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G281" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7765,19 +7627,19 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="F282" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G282" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H282" s="19"/>
       <c r="I282" s="19"/>
@@ -7788,19 +7650,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="F283" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G283" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7811,19 +7673,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="F284" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G284" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7831,19 +7693,19 @@
     </row>
     <row r="285" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B285" s="15" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F285" s="18">
-        <v>41756</v>
+        <v>56940</v>
       </c>
       <c r="G285" s="18">
         <v>1423500</v>
@@ -7854,16 +7716,16 @@
     </row>
     <row r="286" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B286" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F286" s="18">
         <v>56940</v>
@@ -7877,16 +7739,16 @@
     </row>
     <row r="287" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B287" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F287" s="18">
         <v>56940</v>
@@ -7900,16 +7762,16 @@
     </row>
     <row r="288" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B288" s="15" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="F288" s="18">
         <v>56940</v>
@@ -7926,19 +7788,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F289" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G289" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7949,19 +7811,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F290" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G290" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7972,19 +7834,19 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="F291" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G291" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H291" s="19"/>
       <c r="I291" s="19"/>
@@ -7995,19 +7857,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="F292" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G292" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -8015,22 +7877,22 @@
     </row>
     <row r="293" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B293" s="15" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="F293" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G293" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -8041,19 +7903,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="F294" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G294" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -8064,19 +7926,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F295" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G295" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -8087,19 +7949,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F296" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G296" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -8110,19 +7972,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="F297" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G297" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -8133,19 +7995,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="F298" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G298" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -8156,1018 +8018,75 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="F299" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G299" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
       <c r="J299" s="20"/>
     </row>
     <row r="300" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B300" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C300" s="16" t="s">
+      <c r="B300" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D300" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E300" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F300" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G300" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H300" s="25"/>
+      <c r="I300" s="25"/>
+      <c r="J300" s="26"/>
+    </row>
+    <row r="305" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B305" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C305" s="32"/>
+      <c r="H305" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I305" s="1"/>
+      <c r="J305" s="1"/>
+    </row>
+    <row r="306" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B306" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="D300" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E300" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F300" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G300" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H300" s="19"/>
-      <c r="I300" s="19"/>
-      <c r="J300" s="20"/>
-    </row>
-    <row r="301" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B301" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C301" s="16" t="s">
+      <c r="C306" s="32"/>
+      <c r="H306" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D301" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E301" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F301" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G301" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H301" s="19"/>
-      <c r="I301" s="19"/>
-      <c r="J301" s="20"/>
-    </row>
-    <row r="302" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B302" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C302" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E302" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F302" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G302" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H302" s="19"/>
-      <c r="I302" s="19"/>
-      <c r="J302" s="20"/>
-    </row>
-    <row r="303" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B303" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C303" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D303" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E303" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F303" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G303" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H303" s="19"/>
-      <c r="I303" s="19"/>
-      <c r="J303" s="20"/>
-    </row>
-    <row r="304" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B304" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C304" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E304" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F304" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G304" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H304" s="19"/>
-      <c r="I304" s="19"/>
-      <c r="J304" s="20"/>
-    </row>
-    <row r="305" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B305" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C305" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D305" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E305" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F305" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G305" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H305" s="19"/>
-      <c r="I305" s="19"/>
-      <c r="J305" s="20"/>
-    </row>
-    <row r="306" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B306" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C306" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D306" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E306" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F306" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G306" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H306" s="19"/>
-      <c r="I306" s="19"/>
-      <c r="J306" s="20"/>
-    </row>
-    <row r="307" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B307" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C307" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D307" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E307" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F307" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G307" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H307" s="19"/>
-      <c r="I307" s="19"/>
-      <c r="J307" s="20"/>
-    </row>
-    <row r="308" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B308" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C308" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D308" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E308" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F308" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G308" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H308" s="19"/>
-      <c r="I308" s="19"/>
-      <c r="J308" s="20"/>
-    </row>
-    <row r="309" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B309" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C309" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E309" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F309" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G309" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H309" s="19"/>
-      <c r="I309" s="19"/>
-      <c r="J309" s="20"/>
-    </row>
-    <row r="310" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B310" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C310" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D310" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E310" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F310" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G310" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H310" s="19"/>
-      <c r="I310" s="19"/>
-      <c r="J310" s="20"/>
-    </row>
-    <row r="311" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B311" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C311" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D311" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E311" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F311" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G311" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H311" s="19"/>
-      <c r="I311" s="19"/>
-      <c r="J311" s="20"/>
-    </row>
-    <row r="312" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B312" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C312" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D312" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E312" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F312" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G312" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H312" s="19"/>
-      <c r="I312" s="19"/>
-      <c r="J312" s="20"/>
-    </row>
-    <row r="313" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B313" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C313" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D313" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E313" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F313" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G313" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H313" s="19"/>
-      <c r="I313" s="19"/>
-      <c r="J313" s="20"/>
-    </row>
-    <row r="314" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B314" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C314" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D314" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E314" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F314" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G314" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H314" s="19"/>
-      <c r="I314" s="19"/>
-      <c r="J314" s="20"/>
-    </row>
-    <row r="315" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B315" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C315" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D315" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E315" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F315" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G315" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H315" s="19"/>
-      <c r="I315" s="19"/>
-      <c r="J315" s="20"/>
-    </row>
-    <row r="316" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B316" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C316" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D316" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E316" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F316" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G316" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H316" s="19"/>
-      <c r="I316" s="19"/>
-      <c r="J316" s="20"/>
-    </row>
-    <row r="317" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B317" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C317" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D317" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E317" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F317" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G317" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H317" s="19"/>
-      <c r="I317" s="19"/>
-      <c r="J317" s="20"/>
-    </row>
-    <row r="318" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B318" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C318" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D318" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E318" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F318" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G318" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H318" s="19"/>
-      <c r="I318" s="19"/>
-      <c r="J318" s="20"/>
-    </row>
-    <row r="319" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B319" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C319" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D319" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E319" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F319" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G319" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H319" s="19"/>
-      <c r="I319" s="19"/>
-      <c r="J319" s="20"/>
-    </row>
-    <row r="320" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B320" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C320" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D320" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E320" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F320" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G320" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H320" s="19"/>
-      <c r="I320" s="19"/>
-      <c r="J320" s="20"/>
-    </row>
-    <row r="321" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B321" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C321" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D321" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E321" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F321" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G321" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H321" s="19"/>
-      <c r="I321" s="19"/>
-      <c r="J321" s="20"/>
-    </row>
-    <row r="322" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B322" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C322" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D322" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E322" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F322" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G322" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H322" s="19"/>
-      <c r="I322" s="19"/>
-      <c r="J322" s="20"/>
-    </row>
-    <row r="323" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B323" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C323" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D323" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E323" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F323" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G323" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H323" s="19"/>
-      <c r="I323" s="19"/>
-      <c r="J323" s="20"/>
-    </row>
-    <row r="324" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B324" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C324" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D324" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E324" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F324" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G324" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H324" s="19"/>
-      <c r="I324" s="19"/>
-      <c r="J324" s="20"/>
-    </row>
-    <row r="325" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B325" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C325" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D325" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E325" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F325" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G325" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H325" s="19"/>
-      <c r="I325" s="19"/>
-      <c r="J325" s="20"/>
-    </row>
-    <row r="326" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B326" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C326" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D326" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E326" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F326" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G326" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H326" s="19"/>
-      <c r="I326" s="19"/>
-      <c r="J326" s="20"/>
-    </row>
-    <row r="327" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B327" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C327" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D327" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E327" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F327" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G327" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H327" s="19"/>
-      <c r="I327" s="19"/>
-      <c r="J327" s="20"/>
-    </row>
-    <row r="328" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B328" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C328" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D328" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E328" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F328" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G328" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H328" s="19"/>
-      <c r="I328" s="19"/>
-      <c r="J328" s="20"/>
-    </row>
-    <row r="329" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B329" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C329" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D329" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E329" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F329" s="18">
-        <v>37960</v>
-      </c>
-      <c r="G329" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H329" s="19"/>
-      <c r="I329" s="19"/>
-      <c r="J329" s="20"/>
-    </row>
-    <row r="330" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B330" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C330" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D330" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E330" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F330" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G330" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H330" s="19"/>
-      <c r="I330" s="19"/>
-      <c r="J330" s="20"/>
-    </row>
-    <row r="331" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B331" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C331" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D331" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E331" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F331" s="18">
-        <v>32266</v>
-      </c>
-      <c r="G331" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H331" s="19"/>
-      <c r="I331" s="19"/>
-      <c r="J331" s="20"/>
-    </row>
-    <row r="332" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B332" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C332" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D332" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E332" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F332" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G332" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H332" s="19"/>
-      <c r="I332" s="19"/>
-      <c r="J332" s="20"/>
-    </row>
-    <row r="333" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B333" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C333" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D333" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E333" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F333" s="18">
-        <v>20878</v>
-      </c>
-      <c r="G333" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H333" s="19"/>
-      <c r="I333" s="19"/>
-      <c r="J333" s="20"/>
-    </row>
-    <row r="334" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B334" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C334" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D334" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E334" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F334" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G334" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H334" s="19"/>
-      <c r="I334" s="19"/>
-      <c r="J334" s="20"/>
-    </row>
-    <row r="335" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B335" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C335" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D335" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E335" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F335" s="18">
-        <v>9490</v>
-      </c>
-      <c r="G335" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H335" s="19"/>
-      <c r="I335" s="19"/>
-      <c r="J335" s="20"/>
-    </row>
-    <row r="336" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B336" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C336" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D336" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E336" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F336" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G336" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H336" s="19"/>
-      <c r="I336" s="19"/>
-      <c r="J336" s="20"/>
-    </row>
-    <row r="337" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B337" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C337" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D337" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E337" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F337" s="18">
-        <v>9490</v>
-      </c>
-      <c r="G337" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H337" s="19"/>
-      <c r="I337" s="19"/>
-      <c r="J337" s="20"/>
-    </row>
-    <row r="338" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B338" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C338" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D338" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E338" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F338" s="18">
-        <v>41756</v>
-      </c>
-      <c r="G338" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H338" s="19"/>
-      <c r="I338" s="19"/>
-      <c r="J338" s="20"/>
-    </row>
-    <row r="339" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B339" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C339" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="D339" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E339" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F339" s="18">
-        <v>43654</v>
-      </c>
-      <c r="G339" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H339" s="19"/>
-      <c r="I339" s="19"/>
-      <c r="J339" s="20"/>
-    </row>
-    <row r="340" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B340" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C340" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D340" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E340" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F340" s="18">
-        <v>41756</v>
-      </c>
-      <c r="G340" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H340" s="19"/>
-      <c r="I340" s="19"/>
-      <c r="J340" s="20"/>
-    </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B341" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C341" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D341" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E341" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F341" s="24">
-        <v>41756</v>
-      </c>
-      <c r="G341" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H341" s="25"/>
-      <c r="I341" s="25"/>
-      <c r="J341" s="26"/>
-    </row>
-    <row r="346" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B346" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C346" s="32"/>
-      <c r="H346" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I346" s="1"/>
-      <c r="J346" s="1"/>
-    </row>
-    <row r="347" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B347" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="C347" s="32"/>
-      <c r="H347" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I347" s="1"/>
-      <c r="J347" s="1"/>
+      <c r="I306" s="1"/>
+      <c r="J306" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B347:C347"/>
-    <mergeCell ref="B346:C346"/>
-    <mergeCell ref="H347:J347"/>
-    <mergeCell ref="H346:J346"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="H306:J306"/>
+    <mergeCell ref="H305:J305"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
